--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49.93</t>
+          <t>43.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>-0.42</t>
         </is>
       </c>
     </row>
@@ -525,22 +525,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-60.50</t>
+          <t>-57.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>45.80</t>
+          <t>48.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-3.54</t>
+          <t>-0.79</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>55.05</t>
+          <t>57.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>-0.69</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>65.94</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>-0.90</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.28</t>
+          <t>56.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>0.76</t>
         </is>
       </c>
     </row>
@@ -673,22 +673,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-61.56</t>
+          <t>-61.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>53.09</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>-0.70</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-54.12</t>
+          <t>-53.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>40.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>46.51</t>
+          <t>46.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.03</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>41.21</t>
+          <t>34.24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>-0.71</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31.91</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.40</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>26.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>0.20</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34.81</t>
+          <t>34.72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.16</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>38.93</t>
+          <t>27.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>4.05</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-54.23</t>
+          <t>-51.28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>39.35</t>
+          <t>22.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-3.03</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16.98</t>
+          <t>-0.12</t>
         </is>
       </c>
     </row>
@@ -1006,22 +1006,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-57.37</t>
+          <t>-56.41</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>34.26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-19.98</t>
+          <t>-0.27</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>4.66</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>54.17</t>
+          <t>18.43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>-0.76</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17.54</t>
+          <t>23.67</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-6.80</t>
+          <t>-0.67</t>
         </is>
       </c>
     </row>
